--- a/!その他/体調管理/筋トレメニュー.xlsx
+++ b/!その他/体調管理/筋トレメニュー.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22645654810af591/デスクトップ/ソース管理/aiocr/!その他/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22645654810af591/デスクトップ/ソース管理/aiocr/!その他/体調管理/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_AD4D066CA252ABDACC10489F8156E74472EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9FE7EEC-9393-4B43-9A3C-E1DCF36E839B}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_AD4D066CA252ABDACC10489F8156E74472EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E7EC0D5-E89A-4A30-9CE3-E77176A03CA6}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="火曜日" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t xml:space="preserve"> 日 </t>
   </si>
@@ -66,12 +68,6 @@
     <t xml:space="preserve"> 火 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 腹筋ローラー </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> プランク＋チューブ腹斜筋 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 体幹系、回復をはさむ        </t>
   </si>
   <si>
@@ -102,12 +98,6 @@
     <t xml:space="preserve"> 金 </t>
   </si>
   <si>
-    <t xml:space="preserve"> サイドレイズ </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 肩プレス         </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 小筋群、姿勢調整Day       </t>
   </si>
   <si>
@@ -130,23 +120,6 @@
   </si>
   <si>
     <t xml:space="preserve"> ストレッチ／リセット用       </t>
-  </si>
-  <si>
-    <t>睡眠</t>
-    <rPh sb="0" eb="2">
-      <t>スイミン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>筋トレ種目</t>
-    <rPh sb="0" eb="1">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>腹筋</t>
@@ -189,12 +162,48 @@
     <t xml:space="preserve">腹斜筋 </t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>種目</t>
+  </si>
+  <si>
+    <t>時間</t>
+  </si>
+  <si>
+    <t>ジャンプスクワット</t>
+  </si>
+  <si>
+    <t>20秒ON / 10秒OFF</t>
+  </si>
+  <si>
+    <t>マウンテンクライマー</t>
+  </si>
+  <si>
+    <t>スケータージャンプ（片脚交互）</t>
+  </si>
+  <si>
+    <t>プッシュアップ（膝OK）</t>
+  </si>
+  <si>
+    <t>×2セット</t>
+  </si>
+  <si>
+    <t>バーピー</t>
+  </si>
+  <si>
+    <t>プランクジャック</t>
+  </si>
+  <si>
+    <t>チューブツイスト</t>
+  </si>
+  <si>
+    <t>フロントランジ（左右交互）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +213,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -230,9 +248,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -248,6 +274,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,287 +543,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M15"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45"/>
   <cols>
-    <col min="3" max="3" width="14.0703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.35546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.0703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="26.5703125" customWidth="1"/>
-    <col min="13" max="13" width="34.35546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.0703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.35546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59C8940-7387-4C5D-9C55-9149FE748807}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.45"/>
+  <cols>
+    <col min="2" max="2" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="38.35546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="4" spans="2:3" ht="55.3">
+      <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="73.75">
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="55.3">
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77550980-44B7-4664-AE0F-65C7C7F12DF4}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.45"/>
+  <cols>
+    <col min="2" max="2" width="36.0703125" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="C2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="C15" s="1">
-        <v>0.65</v>
-      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
